--- a/Fully_Integrated_Financials.xlsx
+++ b/Fully_Integrated_Financials.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brianlee/Dropbox/__Squarespace webpage Notes/__Kajabi_website/__Spreadsheet_assets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brianlee/Dropbox/__bookdown_dfc/__FINAL_BOOK_5_1_2021/Final pieces of book/__All_Files_used_in_writing_DCF_book/__Text_Assets_On_DropBox/__Text_Assets_On_Dropbox/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0495602F-420E-124F-9465-2791A2E2C9D4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9355A21-EE6D-7F45-B712-4FD0C8602577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1620" yWindow="4320" windowWidth="39440" windowHeight="22760" xr2:uid="{26075D62-28DF-9542-95A8-08C16F39C004}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterate="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -414,37 +414,37 @@
     <t>st_debt_borrowing_net</t>
   </si>
   <si>
+    <t>CFF</t>
+  </si>
+  <si>
+    <t>chg_in_cash</t>
+  </si>
+  <si>
+    <t>cash_t_1</t>
+  </si>
+  <si>
+    <t>cash_t</t>
+  </si>
+  <si>
+    <t>cash_check</t>
+  </si>
+  <si>
+    <t>Text Section: 'Produce Statements of Cash Flows in ‘R’</t>
+  </si>
+  <si>
+    <t>R output from running 'out7' R code</t>
+  </si>
+  <si>
+    <t>R code output associated with 'stmts_cfs' R function</t>
+  </si>
+  <si>
+    <t>Tiny spreadsheet roadmap</t>
+  </si>
+  <si>
+    <t>Interest Income (II) and Interest Expense (IE) await completion of the Balance Sheet (B/S).  'Year 0' houses 'fake, test data.'</t>
+  </si>
+  <si>
     <t>sale_MS_net</t>
-  </si>
-  <si>
-    <t>CFF</t>
-  </si>
-  <si>
-    <t>chg_in_cash</t>
-  </si>
-  <si>
-    <t>cash_t_1</t>
-  </si>
-  <si>
-    <t>cash_t</t>
-  </si>
-  <si>
-    <t>cash_check</t>
-  </si>
-  <si>
-    <t>Text Section: 'Produce Statements of Cash Flows in ‘R’</t>
-  </si>
-  <si>
-    <t>R output from running 'out7' R code</t>
-  </si>
-  <si>
-    <t>R code output associated with 'stmts_cfs' R function</t>
-  </si>
-  <si>
-    <t>Tiny spreadsheet roadmap</t>
-  </si>
-  <si>
-    <t>Interest Income (II) and Interest Expense (IE) await completion of the Balance Sheet (B/S).  'Year 0' houses 'fake, test data.'</t>
   </si>
 </sst>
 </file>
@@ -563,7 +563,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -639,11 +639,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -682,14 +700,30 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -1582,13 +1616,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>205</xdr:row>
+      <xdr:row>206</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>205</xdr:row>
+      <xdr:row>206</xdr:row>
       <xdr:rowOff>241300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2035,15 +2069,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>115</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>115</xdr:row>
-      <xdr:rowOff>241300</xdr:rowOff>
+      <xdr:rowOff>228600</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2058,8 +2092,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="1889478" y="15985067"/>
-          <a:ext cx="8651522" cy="215900"/>
+          <a:off x="2844801" y="26339800"/>
+          <a:ext cx="8674100" cy="203200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2099,15 +2133,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>922866</xdr:colOff>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>241300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2123,8 +2157,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="1902178" y="16732956"/>
-          <a:ext cx="8651522" cy="215900"/>
+          <a:off x="2798233" y="27055233"/>
+          <a:ext cx="8686800" cy="215900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2912,8 +2946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65AB9429-C847-C94C-9224-DC095B6EC9B2}">
   <dimension ref="A2:AD216"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2926,8 +2960,8 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:22" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
-        <v>135</v>
+      <c r="A2" s="30" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
@@ -2972,7 +3006,7 @@
     </row>
     <row r="17" spans="3:30" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18" spans="3:30" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -3082,11 +3116,11 @@
         <v>2515000</v>
       </c>
       <c r="V21" s="25"/>
-      <c r="Y21" s="32"/>
-      <c r="Z21" s="32"/>
-      <c r="AA21" s="32"/>
-      <c r="AB21" s="32"/>
-      <c r="AC21" s="32"/>
+      <c r="Y21" s="37"/>
+      <c r="Z21" s="37"/>
+      <c r="AA21" s="37"/>
+      <c r="AB21" s="37"/>
+      <c r="AC21" s="37"/>
     </row>
     <row r="22" spans="3:30" ht="19" x14ac:dyDescent="0.25">
       <c r="C22" s="8" t="s">
@@ -3139,11 +3173,11 @@
       </c>
       <c r="V22" s="25"/>
       <c r="X22" s="16"/>
-      <c r="Y22" s="32"/>
-      <c r="Z22" s="32"/>
-      <c r="AA22" s="32"/>
-      <c r="AB22" s="32"/>
-      <c r="AC22" s="32"/>
+      <c r="Y22" s="37"/>
+      <c r="Z22" s="37"/>
+      <c r="AA22" s="37"/>
+      <c r="AB22" s="37"/>
+      <c r="AC22" s="37"/>
     </row>
     <row r="23" spans="3:30" ht="19" x14ac:dyDescent="0.25">
       <c r="C23" s="6" t="s">
@@ -5483,7 +5517,7 @@
         <v>0</v>
       </c>
       <c r="N100" s="27" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O100" s="27"/>
       <c r="P100" s="27"/>
@@ -5492,12 +5526,12 @@
     </row>
     <row r="102" spans="3:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="N102" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="103" spans="3:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="N103" s="23" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O103" s="22"/>
       <c r="P103" s="22"/>
@@ -5512,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="E105" s="5">
-        <f t="shared" ref="E105:I120" si="12">P105</f>
+        <f t="shared" ref="E105:I118" si="12">P105</f>
         <v>1</v>
       </c>
       <c r="F105" s="5">
@@ -5531,25 +5565,25 @@
         <f t="shared" si="12"/>
         <v>5</v>
       </c>
-      <c r="N105" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="O105" s="30">
-        <v>0</v>
-      </c>
-      <c r="P105" s="30">
+      <c r="N105" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="O105" s="19">
+        <v>0</v>
+      </c>
+      <c r="P105" s="19">
         <v>1</v>
       </c>
-      <c r="Q105" s="30">
+      <c r="Q105" s="19">
         <v>2</v>
       </c>
-      <c r="R105" s="30">
+      <c r="R105" s="19">
         <v>3</v>
       </c>
-      <c r="S105" s="30">
+      <c r="S105" s="19">
         <v>4</v>
       </c>
-      <c r="T105" s="30">
+      <c r="T105" s="19">
         <v>5</v>
       </c>
       <c r="V105" s="19"/>
@@ -5559,7 +5593,7 @@
         <v>15</v>
       </c>
       <c r="D106" s="7">
-        <f t="shared" ref="D106:D129" si="13">O106</f>
+        <f t="shared" ref="D106:D118" si="13">O106</f>
         <v>0</v>
       </c>
       <c r="E106" s="7">
@@ -5582,25 +5616,25 @@
         <f t="shared" si="12"/>
         <v>511852</v>
       </c>
-      <c r="N106" s="30" t="s">
+      <c r="N106" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="O106" s="30">
-        <v>0</v>
-      </c>
-      <c r="P106" s="30">
+      <c r="O106" s="19">
+        <v>0</v>
+      </c>
+      <c r="P106" s="19">
         <v>47584</v>
       </c>
-      <c r="Q106" s="30">
+      <c r="Q106" s="19">
         <v>141355</v>
       </c>
-      <c r="R106" s="30">
+      <c r="R106" s="19">
         <v>262035</v>
       </c>
-      <c r="S106" s="30">
+      <c r="S106" s="19">
         <v>325894</v>
       </c>
-      <c r="T106" s="30">
+      <c r="T106" s="19">
         <v>511852</v>
       </c>
       <c r="V106" s="19"/>
@@ -5633,25 +5667,25 @@
         <f t="shared" si="12"/>
         <v>62500</v>
       </c>
-      <c r="N107" s="30" t="s">
+      <c r="N107" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="O107" s="30">
-        <v>0</v>
-      </c>
-      <c r="P107" s="30">
+      <c r="O107" s="19">
+        <v>0</v>
+      </c>
+      <c r="P107" s="19">
         <v>62500</v>
       </c>
-      <c r="Q107" s="30">
+      <c r="Q107" s="19">
         <v>62500</v>
       </c>
-      <c r="R107" s="30">
+      <c r="R107" s="19">
         <v>62500</v>
       </c>
-      <c r="S107" s="30">
+      <c r="S107" s="19">
         <v>62500</v>
       </c>
-      <c r="T107" s="30">
+      <c r="T107" s="19">
         <v>62500</v>
       </c>
       <c r="V107" s="19"/>
@@ -5684,25 +5718,25 @@
         <f t="shared" si="12"/>
         <v>-100000</v>
       </c>
-      <c r="N108" s="30" t="s">
+      <c r="N108" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="O108" s="30">
-        <v>0</v>
-      </c>
-      <c r="P108" s="30">
+      <c r="O108" s="19">
+        <v>0</v>
+      </c>
+      <c r="P108" s="19">
         <v>35000</v>
       </c>
-      <c r="Q108" s="30">
+      <c r="Q108" s="19">
         <v>55000</v>
       </c>
-      <c r="R108" s="30">
+      <c r="R108" s="19">
         <v>35000</v>
       </c>
-      <c r="S108" s="30">
+      <c r="S108" s="19">
         <v>-25000</v>
       </c>
-      <c r="T108" s="30">
+      <c r="T108" s="19">
         <v>-100000</v>
       </c>
       <c r="V108" s="19"/>
@@ -5736,25 +5770,25 @@
         <v>-162500</v>
       </c>
       <c r="J109" s="14"/>
-      <c r="N109" s="30" t="s">
+      <c r="N109" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="O109" s="30">
-        <v>0</v>
-      </c>
-      <c r="P109" s="30">
-        <v>0</v>
-      </c>
-      <c r="Q109" s="30">
-        <v>0</v>
-      </c>
-      <c r="R109" s="30">
-        <v>0</v>
-      </c>
-      <c r="S109" s="30">
-        <v>0</v>
-      </c>
-      <c r="T109" s="30">
+      <c r="O109" s="19">
+        <v>0</v>
+      </c>
+      <c r="P109" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q109" s="19">
+        <v>0</v>
+      </c>
+      <c r="R109" s="19">
+        <v>0</v>
+      </c>
+      <c r="S109" s="19">
+        <v>0</v>
+      </c>
+      <c r="T109" s="19">
         <v>-162500</v>
       </c>
       <c r="V109" s="19"/>
@@ -5788,25 +5822,25 @@
         <v>125750</v>
       </c>
       <c r="J110" s="14"/>
-      <c r="N110" s="30" t="s">
+      <c r="N110" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="O110" s="30">
-        <v>0</v>
-      </c>
-      <c r="P110" s="30">
+      <c r="O110" s="19">
+        <v>0</v>
+      </c>
+      <c r="P110" s="19">
         <v>-61250</v>
       </c>
-      <c r="Q110" s="30">
+      <c r="Q110" s="19">
         <v>-31250</v>
       </c>
-      <c r="R110" s="30">
+      <c r="R110" s="19">
         <v>-17500</v>
       </c>
-      <c r="S110" s="30">
+      <c r="S110" s="19">
         <v>-15750</v>
       </c>
-      <c r="T110" s="30">
+      <c r="T110" s="19">
         <v>125750</v>
       </c>
       <c r="V110" s="19"/>
@@ -5840,25 +5874,25 @@
         <v>125750</v>
       </c>
       <c r="J111" s="14"/>
-      <c r="N111" s="30" t="s">
+      <c r="N111" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="O111" s="30">
+      <c r="O111" s="19">
         <v>-30500</v>
       </c>
-      <c r="P111" s="30">
+      <c r="P111" s="19">
         <v>-30750</v>
       </c>
-      <c r="Q111" s="30">
+      <c r="Q111" s="19">
         <v>-31250</v>
       </c>
-      <c r="R111" s="30">
+      <c r="R111" s="19">
         <v>-17500</v>
       </c>
-      <c r="S111" s="30">
+      <c r="S111" s="19">
         <v>-15750</v>
       </c>
-      <c r="T111" s="30">
+      <c r="T111" s="19">
         <v>125750</v>
       </c>
       <c r="V111" s="19"/>
@@ -5892,25 +5926,25 @@
         <v>3772</v>
       </c>
       <c r="J112" s="14"/>
-      <c r="N112" s="30" t="s">
+      <c r="N112" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="O112" s="30">
+      <c r="O112" s="19">
         <v>-915</v>
       </c>
-      <c r="P112" s="30">
+      <c r="P112" s="19">
         <v>-922</v>
       </c>
-      <c r="Q112" s="30">
+      <c r="Q112" s="19">
         <v>-938</v>
       </c>
-      <c r="R112" s="30">
+      <c r="R112" s="19">
         <v>-525</v>
       </c>
-      <c r="S112" s="30">
+      <c r="S112" s="19">
         <v>-472</v>
       </c>
-      <c r="T112" s="30">
+      <c r="T112" s="19">
         <v>3772</v>
       </c>
       <c r="V112" s="19"/>
@@ -5944,25 +5978,25 @@
         <v>-150900</v>
       </c>
       <c r="J113" s="14"/>
-      <c r="N113" s="30" t="s">
+      <c r="N113" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="O113" s="30">
+      <c r="O113" s="19">
         <v>30500</v>
       </c>
-      <c r="P113" s="30">
+      <c r="P113" s="19">
         <v>43000</v>
       </c>
-      <c r="Q113" s="30">
+      <c r="Q113" s="19">
         <v>37500</v>
       </c>
-      <c r="R113" s="30">
+      <c r="R113" s="19">
         <v>21000</v>
       </c>
-      <c r="S113" s="30">
+      <c r="S113" s="19">
         <v>18900</v>
       </c>
-      <c r="T113" s="30">
+      <c r="T113" s="19">
         <v>-150900</v>
       </c>
       <c r="V113" s="19"/>
@@ -5996,25 +6030,25 @@
         <v>-11318</v>
       </c>
       <c r="J114" s="14"/>
-      <c r="N114" s="30" t="s">
+      <c r="N114" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="O114" s="30">
-        <v>0</v>
-      </c>
-      <c r="P114" s="30">
+      <c r="O114" s="19">
+        <v>0</v>
+      </c>
+      <c r="P114" s="19">
         <v>5512</v>
       </c>
-      <c r="Q114" s="30">
+      <c r="Q114" s="19">
         <v>2812</v>
       </c>
-      <c r="R114" s="30">
+      <c r="R114" s="19">
         <v>1575</v>
       </c>
-      <c r="S114" s="30">
+      <c r="S114" s="19">
         <v>1418</v>
       </c>
-      <c r="T114" s="30">
+      <c r="T114" s="19">
         <v>-11318</v>
       </c>
       <c r="V114" s="19"/>
@@ -6048,25 +6082,25 @@
         <v>-60566</v>
       </c>
       <c r="J115" s="14"/>
-      <c r="N115" s="30" t="s">
+      <c r="N115" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="O115" s="30">
-        <v>0</v>
-      </c>
-      <c r="P115" s="30">
+      <c r="O115" s="19">
+        <v>0</v>
+      </c>
+      <c r="P115" s="19">
         <v>-819</v>
       </c>
-      <c r="Q115" s="30">
+      <c r="Q115" s="19">
         <v>10629</v>
       </c>
-      <c r="R115" s="30">
+      <c r="R115" s="19">
         <v>25113</v>
       </c>
-      <c r="S115" s="30">
+      <c r="S115" s="19">
         <v>25643</v>
       </c>
-      <c r="T115" s="30">
+      <c r="T115" s="19">
         <v>-60566</v>
       </c>
       <c r="V115" s="19"/>
@@ -6100,25 +6134,25 @@
         <v>344341</v>
       </c>
       <c r="J116" s="14"/>
-      <c r="N116" s="30" t="s">
+      <c r="N116" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="O116" s="30">
+      <c r="O116" s="19">
         <v>-915</v>
       </c>
-      <c r="P116" s="30">
+      <c r="P116" s="19">
         <v>99854</v>
       </c>
-      <c r="Q116" s="30">
+      <c r="Q116" s="19">
         <v>246359</v>
       </c>
-      <c r="R116" s="30">
+      <c r="R116" s="19">
         <v>371699</v>
       </c>
-      <c r="S116" s="30">
+      <c r="S116" s="19">
         <v>377382</v>
       </c>
-      <c r="T116" s="30">
+      <c r="T116" s="19">
         <v>344341</v>
       </c>
       <c r="V116" s="19"/>
@@ -6152,390 +6186,390 @@
         <v>0</v>
       </c>
       <c r="J117" s="14"/>
-      <c r="N117" s="30" t="s">
+      <c r="N117" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="O117" s="30">
+      <c r="O117" s="19">
         <v>-500000</v>
       </c>
-      <c r="P117" s="30">
-        <v>0</v>
-      </c>
-      <c r="Q117" s="30">
-        <v>0</v>
-      </c>
-      <c r="R117" s="30">
-        <v>0</v>
-      </c>
-      <c r="S117" s="30">
-        <v>0</v>
-      </c>
-      <c r="T117" s="30">
+      <c r="P117" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q117" s="19">
+        <v>0</v>
+      </c>
+      <c r="R117" s="19">
+        <v>0</v>
+      </c>
+      <c r="S117" s="19">
+        <v>0</v>
+      </c>
+      <c r="T117" s="19">
         <v>0</v>
       </c>
       <c r="V117" s="19"/>
     </row>
     <row r="118" spans="3:22" ht="19" x14ac:dyDescent="0.25">
-      <c r="C118" s="6" t="s">
+      <c r="C118" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="D118" s="5">
+      <c r="D118" s="34">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="E118" s="5">
+      <c r="E118" s="34">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="F118" s="5">
+      <c r="F118" s="34">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="G118" s="5">
+      <c r="G118" s="34">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="H118" s="5">
+      <c r="H118" s="34">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="I118" s="5">
+      <c r="I118" s="34">
         <f t="shared" si="12"/>
         <v>350000</v>
       </c>
       <c r="J118" s="14"/>
-      <c r="N118" s="30" t="s">
+      <c r="N118" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="O118" s="30">
-        <v>0</v>
-      </c>
-      <c r="P118" s="30">
-        <v>0</v>
-      </c>
-      <c r="Q118" s="30">
-        <v>0</v>
-      </c>
-      <c r="R118" s="30">
-        <v>0</v>
-      </c>
-      <c r="S118" s="30">
-        <v>0</v>
-      </c>
-      <c r="T118" s="30">
+      <c r="O118" s="19">
+        <v>0</v>
+      </c>
+      <c r="P118" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q118" s="19">
+        <v>0</v>
+      </c>
+      <c r="R118" s="19">
+        <v>0</v>
+      </c>
+      <c r="S118" s="19">
+        <v>0</v>
+      </c>
+      <c r="T118" s="19">
         <v>350000</v>
       </c>
       <c r="V118" s="19"/>
     </row>
-    <row r="119" spans="3:22" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C119" s="11" t="s">
+    <row r="119" spans="3:22" ht="19" x14ac:dyDescent="0.25">
+      <c r="C119" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D119" s="5">
+        <f t="shared" ref="D119:D129" si="14">O119</f>
+        <v>0</v>
+      </c>
+      <c r="E119" s="5">
+        <f t="shared" ref="E119:E129" si="15">P119</f>
+        <v>0</v>
+      </c>
+      <c r="F119" s="5">
+        <f t="shared" ref="F119:F129" si="16">Q119</f>
+        <v>-7226</v>
+      </c>
+      <c r="G119" s="5">
+        <f t="shared" ref="G119:G129" si="17">R119</f>
+        <v>-343722</v>
+      </c>
+      <c r="H119" s="5">
+        <f t="shared" ref="H119:H129" si="18">S119</f>
+        <v>-347700</v>
+      </c>
+      <c r="I119" s="5">
+        <f t="shared" ref="I119:I129" si="19">T119</f>
+        <v>698648</v>
+      </c>
+      <c r="J119" s="14"/>
+      <c r="N119" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="O119" s="19">
+        <v>0</v>
+      </c>
+      <c r="P119" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q119" s="19">
+        <v>-7226</v>
+      </c>
+      <c r="R119" s="19">
+        <v>-343722</v>
+      </c>
+      <c r="S119" s="19">
+        <v>-347700</v>
+      </c>
+      <c r="T119" s="19">
+        <v>698648</v>
+      </c>
+      <c r="V119" s="19"/>
+    </row>
+    <row r="120" spans="3:22" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C120" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="D119" s="12">
-        <f t="shared" si="13"/>
+      <c r="D120" s="32">
+        <f t="shared" si="14"/>
         <v>-500000</v>
       </c>
-      <c r="E119" s="12">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="F119" s="12">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="G119" s="12">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="H119" s="12">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="I119" s="12">
-        <f t="shared" si="12"/>
-        <v>350000</v>
-      </c>
-      <c r="J119" s="14"/>
-      <c r="N119" s="30" t="s">
+      <c r="E120" s="32">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="F120" s="32">
+        <f t="shared" si="16"/>
+        <v>-7226</v>
+      </c>
+      <c r="G120" s="32">
+        <f t="shared" si="17"/>
+        <v>-343722</v>
+      </c>
+      <c r="H120" s="32">
+        <f t="shared" si="18"/>
+        <v>-347700</v>
+      </c>
+      <c r="I120" s="32">
+        <f t="shared" si="19"/>
+        <v>1048648</v>
+      </c>
+      <c r="J120" s="14"/>
+      <c r="N120" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="O119" s="30">
+      <c r="O120" s="19">
         <v>-500000</v>
       </c>
-      <c r="P119" s="30">
-        <v>0</v>
-      </c>
-      <c r="Q119" s="30">
-        <v>0</v>
-      </c>
-      <c r="R119" s="30">
-        <v>0</v>
-      </c>
-      <c r="S119" s="30">
-        <v>0</v>
-      </c>
-      <c r="T119" s="30">
-        <v>350000</v>
-      </c>
-      <c r="V119" s="19"/>
-    </row>
-    <row r="120" spans="3:22" ht="20" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C120" s="6" t="s">
+      <c r="P120" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q120" s="19">
+        <v>-7226</v>
+      </c>
+      <c r="R120" s="19">
+        <v>-343722</v>
+      </c>
+      <c r="S120" s="19">
+        <v>-347700</v>
+      </c>
+      <c r="T120" s="19">
+        <v>1048648</v>
+      </c>
+      <c r="V120" s="19"/>
+    </row>
+    <row r="121" spans="3:22" ht="20" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C121" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D120" s="7">
-        <f t="shared" si="13"/>
+      <c r="D121" s="7">
+        <f t="shared" si="14"/>
         <v>250000</v>
       </c>
-      <c r="E120" s="7">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="F120" s="7">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="G120" s="7">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="H120" s="7">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="I120" s="7">
-        <f t="shared" si="12"/>
+      <c r="E121" s="7">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="F121" s="7">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G121" s="7">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="H121" s="7">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="I121" s="7">
+        <f t="shared" si="19"/>
         <v>-250000</v>
       </c>
-      <c r="J120" s="14"/>
-      <c r="N120" s="30" t="s">
+      <c r="J121" s="14"/>
+      <c r="N121" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="O120" s="30">
+      <c r="O121" s="19">
         <v>250000</v>
       </c>
-      <c r="P120" s="30">
-        <v>0</v>
-      </c>
-      <c r="Q120" s="30">
-        <v>0</v>
-      </c>
-      <c r="R120" s="30">
-        <v>0</v>
-      </c>
-      <c r="S120" s="30">
-        <v>0</v>
-      </c>
-      <c r="T120" s="30">
+      <c r="P121" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q121" s="19">
+        <v>0</v>
+      </c>
+      <c r="R121" s="19">
+        <v>0</v>
+      </c>
+      <c r="S121" s="19">
+        <v>0</v>
+      </c>
+      <c r="T121" s="19">
         <v>-250000</v>
-      </c>
-      <c r="V120" s="19"/>
-    </row>
-    <row r="121" spans="3:22" ht="19" x14ac:dyDescent="0.25">
-      <c r="C121" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D121" s="7">
-        <f t="shared" si="13"/>
-        <v>250000</v>
-      </c>
-      <c r="E121" s="7">
-        <f t="shared" ref="E121:E129" si="14">P121</f>
-        <v>-44498</v>
-      </c>
-      <c r="F121" s="7">
-        <f t="shared" ref="F121:F129" si="15">Q121</f>
-        <v>-205502</v>
-      </c>
-      <c r="G121" s="7">
-        <f t="shared" ref="G121:G129" si="16">R121</f>
-        <v>0</v>
-      </c>
-      <c r="H121" s="7">
-        <f t="shared" ref="H121:H129" si="17">S121</f>
-        <v>0</v>
-      </c>
-      <c r="I121" s="7">
-        <f t="shared" ref="I121:I129" si="18">T121</f>
-        <v>0</v>
-      </c>
-      <c r="J121" s="14"/>
-      <c r="N121" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="O121" s="30">
-        <v>250000</v>
-      </c>
-      <c r="P121" s="30">
-        <v>-44498</v>
-      </c>
-      <c r="Q121" s="30">
-        <v>-205502</v>
-      </c>
-      <c r="R121" s="30">
-        <v>0</v>
-      </c>
-      <c r="S121" s="30">
-        <v>0</v>
-      </c>
-      <c r="T121" s="30">
-        <v>0</v>
       </c>
       <c r="V121" s="19"/>
     </row>
     <row r="122" spans="3:22" ht="19" x14ac:dyDescent="0.25">
       <c r="C122" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D122" s="7">
-        <f t="shared" si="13"/>
-        <v>31415</v>
+        <f t="shared" si="14"/>
+        <v>250000</v>
       </c>
       <c r="E122" s="7">
-        <f t="shared" si="14"/>
-        <v>-22228</v>
+        <f t="shared" si="15"/>
+        <v>-44498</v>
       </c>
       <c r="F122" s="7">
-        <f t="shared" si="15"/>
-        <v>4688</v>
+        <f t="shared" si="16"/>
+        <v>-205502</v>
       </c>
       <c r="G122" s="7">
-        <f t="shared" si="16"/>
-        <v>2625</v>
+        <f t="shared" si="17"/>
+        <v>0</v>
       </c>
       <c r="H122" s="7">
-        <f t="shared" si="17"/>
-        <v>2362</v>
+        <f t="shared" si="18"/>
+        <v>0</v>
       </c>
       <c r="I122" s="7">
-        <f t="shared" si="18"/>
-        <v>-18862</v>
+        <f t="shared" si="19"/>
+        <v>0</v>
       </c>
       <c r="J122" s="14"/>
-      <c r="N122" s="30" t="s">
-        <v>125</v>
-      </c>
-      <c r="O122" s="30">
-        <v>31415</v>
-      </c>
-      <c r="P122" s="30">
-        <v>-22228</v>
-      </c>
-      <c r="Q122" s="30">
-        <v>4688</v>
-      </c>
-      <c r="R122" s="30">
-        <v>2625</v>
-      </c>
-      <c r="S122" s="30">
-        <v>2362</v>
-      </c>
-      <c r="T122" s="30">
-        <v>-18862</v>
+      <c r="N122" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="O122" s="19">
+        <v>250000</v>
+      </c>
+      <c r="P122" s="19">
+        <v>-44498</v>
+      </c>
+      <c r="Q122" s="19">
+        <v>-205502</v>
+      </c>
+      <c r="R122" s="19">
+        <v>0</v>
+      </c>
+      <c r="S122" s="19">
+        <v>0</v>
+      </c>
+      <c r="T122" s="19">
+        <v>0</v>
       </c>
       <c r="V122" s="19"/>
     </row>
     <row r="123" spans="3:22" ht="19" x14ac:dyDescent="0.25">
       <c r="C123" s="6" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="D123" s="7">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>31415</v>
       </c>
       <c r="E123" s="7">
-        <f t="shared" si="14"/>
-        <v>-2379</v>
+        <f t="shared" si="15"/>
+        <v>-22228</v>
       </c>
       <c r="F123" s="7">
-        <f t="shared" si="15"/>
-        <v>-7068</v>
+        <f t="shared" si="16"/>
+        <v>4688</v>
       </c>
       <c r="G123" s="7">
-        <f t="shared" si="16"/>
-        <v>-13102</v>
+        <f t="shared" si="17"/>
+        <v>2625</v>
       </c>
       <c r="H123" s="7">
-        <f t="shared" si="17"/>
-        <v>-16295</v>
+        <f t="shared" si="18"/>
+        <v>2362</v>
       </c>
       <c r="I123" s="7">
-        <f t="shared" si="18"/>
-        <v>-1249876</v>
+        <f t="shared" si="19"/>
+        <v>-18862</v>
       </c>
       <c r="J123" s="14"/>
-      <c r="N123" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="O123" s="30">
-        <v>0</v>
-      </c>
-      <c r="P123" s="30">
-        <v>-2379</v>
-      </c>
-      <c r="Q123" s="30">
-        <v>-7068</v>
-      </c>
-      <c r="R123" s="30">
-        <v>-13102</v>
-      </c>
-      <c r="S123" s="30">
-        <v>-16295</v>
-      </c>
-      <c r="T123" s="30">
-        <v>-1249876</v>
+      <c r="N123" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="O123" s="19">
+        <v>31415</v>
+      </c>
+      <c r="P123" s="19">
+        <v>-22228</v>
+      </c>
+      <c r="Q123" s="19">
+        <v>4688</v>
+      </c>
+      <c r="R123" s="19">
+        <v>2625</v>
+      </c>
+      <c r="S123" s="19">
+        <v>2362</v>
+      </c>
+      <c r="T123" s="19">
+        <v>-18862</v>
       </c>
       <c r="V123" s="19"/>
     </row>
     <row r="124" spans="3:22" ht="19" x14ac:dyDescent="0.25">
       <c r="C124" s="6" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="D124" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="E124" s="7">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>-2379</v>
       </c>
       <c r="F124" s="7">
-        <f t="shared" si="15"/>
-        <v>-7226</v>
+        <f t="shared" si="16"/>
+        <v>-7068</v>
       </c>
       <c r="G124" s="7">
-        <f t="shared" si="16"/>
-        <v>-343722</v>
+        <f t="shared" si="17"/>
+        <v>-13102</v>
       </c>
       <c r="H124" s="7">
-        <f t="shared" si="17"/>
-        <v>-347700</v>
+        <f t="shared" si="18"/>
+        <v>-16295</v>
       </c>
       <c r="I124" s="7">
-        <f t="shared" si="18"/>
-        <v>698648</v>
+        <f t="shared" si="19"/>
+        <v>-1249876</v>
       </c>
       <c r="J124" s="14"/>
-      <c r="N124" s="30" t="s">
-        <v>126</v>
-      </c>
-      <c r="O124" s="30">
-        <v>0</v>
-      </c>
-      <c r="P124" s="30">
-        <v>0</v>
-      </c>
-      <c r="Q124" s="30">
-        <v>-7226</v>
-      </c>
-      <c r="R124" s="30">
-        <v>-343722</v>
-      </c>
-      <c r="S124" s="30">
-        <v>-347700</v>
-      </c>
-      <c r="T124" s="30">
-        <v>698648</v>
+      <c r="N124" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="O124" s="19">
+        <v>0</v>
+      </c>
+      <c r="P124" s="19">
+        <v>-2379</v>
+      </c>
+      <c r="Q124" s="19">
+        <v>-7068</v>
+      </c>
+      <c r="R124" s="19">
+        <v>-13102</v>
+      </c>
+      <c r="S124" s="19">
+        <v>-16295</v>
+      </c>
+      <c r="T124" s="19">
+        <v>-1249876</v>
       </c>
       <c r="V124" s="19"/>
     </row>
@@ -6544,50 +6578,50 @@
         <v>57</v>
       </c>
       <c r="D125" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>531415</v>
       </c>
       <c r="E125" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-69104</v>
       </c>
       <c r="F125" s="12">
-        <f t="shared" si="15"/>
-        <v>-215109</v>
+        <f t="shared" si="16"/>
+        <v>-207883</v>
       </c>
       <c r="G125" s="12">
-        <f t="shared" si="16"/>
-        <v>-354199</v>
+        <f t="shared" si="17"/>
+        <v>-10477</v>
       </c>
       <c r="H125" s="12">
-        <f t="shared" si="17"/>
-        <v>-361632</v>
+        <f t="shared" si="18"/>
+        <v>-13932</v>
       </c>
       <c r="I125" s="12">
-        <f t="shared" si="18"/>
-        <v>-820091</v>
+        <f t="shared" si="19"/>
+        <v>-1518739</v>
       </c>
       <c r="J125" s="14"/>
-      <c r="N125" s="30" t="s">
-        <v>127</v>
-      </c>
-      <c r="O125" s="30">
+      <c r="N125" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="O125" s="19">
         <v>531415</v>
       </c>
-      <c r="P125" s="30">
+      <c r="P125" s="19">
         <v>-69104</v>
       </c>
-      <c r="Q125" s="30">
-        <v>-215109</v>
-      </c>
-      <c r="R125" s="30">
-        <v>-354199</v>
-      </c>
-      <c r="S125" s="30">
-        <v>-361632</v>
-      </c>
-      <c r="T125" s="30">
-        <v>-820091</v>
+      <c r="Q125" s="19">
+        <v>-207883</v>
+      </c>
+      <c r="R125" s="19">
+        <v>-10477</v>
+      </c>
+      <c r="S125" s="19">
+        <v>-13932</v>
+      </c>
+      <c r="T125" s="19">
+        <v>-1518739</v>
       </c>
       <c r="V125" s="19"/>
     </row>
@@ -6596,49 +6630,49 @@
         <v>58</v>
       </c>
       <c r="D126" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>30500</v>
       </c>
       <c r="E126" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>30750</v>
       </c>
       <c r="F126" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>31250</v>
       </c>
       <c r="G126" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>17500</v>
       </c>
       <c r="H126" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>15750</v>
       </c>
       <c r="I126" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>-125750</v>
       </c>
       <c r="J126" s="14"/>
-      <c r="N126" s="30" t="s">
-        <v>128</v>
-      </c>
-      <c r="O126" s="30">
+      <c r="N126" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="O126" s="19">
         <v>30500</v>
       </c>
-      <c r="P126" s="30">
+      <c r="P126" s="19">
         <v>30750</v>
       </c>
-      <c r="Q126" s="30">
+      <c r="Q126" s="19">
         <v>31250</v>
       </c>
-      <c r="R126" s="30">
+      <c r="R126" s="19">
         <v>17500</v>
       </c>
-      <c r="S126" s="30">
+      <c r="S126" s="19">
         <v>15750</v>
       </c>
-      <c r="T126" s="30">
+      <c r="T126" s="19">
         <v>-125750</v>
       </c>
       <c r="V126" s="19"/>
@@ -6648,49 +6682,49 @@
         <v>59</v>
       </c>
       <c r="D127" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="E127" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>30500</v>
       </c>
       <c r="F127" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>61250</v>
       </c>
       <c r="G127" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>92500</v>
       </c>
       <c r="H127" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>110000</v>
       </c>
       <c r="I127" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>125750</v>
       </c>
       <c r="J127" s="14"/>
-      <c r="N127" s="30" t="s">
-        <v>129</v>
-      </c>
-      <c r="O127" s="30">
-        <v>0</v>
-      </c>
-      <c r="P127" s="30">
+      <c r="N127" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="O127" s="19">
+        <v>0</v>
+      </c>
+      <c r="P127" s="19">
         <v>30500</v>
       </c>
-      <c r="Q127" s="30">
+      <c r="Q127" s="19">
         <v>61250</v>
       </c>
-      <c r="R127" s="30">
+      <c r="R127" s="19">
         <v>92500</v>
       </c>
-      <c r="S127" s="30">
+      <c r="S127" s="19">
         <v>110000</v>
       </c>
-      <c r="T127" s="30">
+      <c r="T127" s="19">
         <v>125750</v>
       </c>
       <c r="V127" s="19"/>
@@ -6700,49 +6734,49 @@
         <v>60</v>
       </c>
       <c r="D128" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>30500</v>
       </c>
       <c r="E128" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>61250</v>
       </c>
       <c r="F128" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>92500</v>
       </c>
       <c r="G128" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>110000</v>
       </c>
       <c r="H128" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>125750</v>
       </c>
       <c r="I128" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="J128" s="14"/>
-      <c r="N128" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="O128" s="30">
+      <c r="N128" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="O128" s="19">
         <v>30500</v>
       </c>
-      <c r="P128" s="30">
+      <c r="P128" s="19">
         <v>61250</v>
       </c>
-      <c r="Q128" s="30">
+      <c r="Q128" s="19">
         <v>92500</v>
       </c>
-      <c r="R128" s="30">
+      <c r="R128" s="19">
         <v>110000</v>
       </c>
-      <c r="S128" s="30">
+      <c r="S128" s="19">
         <v>125750</v>
       </c>
-      <c r="T128" s="30">
+      <c r="T128" s="19">
         <v>0</v>
       </c>
       <c r="V128" s="19"/>
@@ -6752,51 +6786,54 @@
         <v>61</v>
       </c>
       <c r="D129" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="E129" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="F129" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G129" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="H129" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I129" s="7">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="N129" s="30" t="s">
-        <v>131</v>
-      </c>
-      <c r="O129" s="30">
-        <v>0</v>
-      </c>
-      <c r="P129" s="30">
-        <v>0</v>
-      </c>
-      <c r="Q129" s="30">
-        <v>0</v>
-      </c>
-      <c r="R129" s="30">
-        <v>0</v>
-      </c>
-      <c r="S129" s="30">
-        <v>0</v>
-      </c>
-      <c r="T129" s="30">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="N129" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="O129" s="19">
+        <v>0</v>
+      </c>
+      <c r="P129" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q129" s="19">
+        <v>0</v>
+      </c>
+      <c r="R129" s="19">
+        <v>0</v>
+      </c>
+      <c r="S129" s="19">
+        <v>0</v>
+      </c>
+      <c r="T129" s="19">
         <v>0</v>
       </c>
       <c r="V129" s="19"/>
+    </row>
+    <row r="130" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="V130" s="19"/>
     </row>
     <row r="133" spans="2:22" ht="26" x14ac:dyDescent="0.3">
       <c r="C133" s="28" t="s">
@@ -6808,6 +6845,30 @@
       <c r="G133" s="29"/>
       <c r="H133" s="29"/>
       <c r="I133" s="29"/>
+    </row>
+    <row r="135" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="D135" s="1"/>
+      <c r="E135" s="1"/>
+      <c r="F135" s="1"/>
+      <c r="G135" s="1"/>
+      <c r="H135" s="1"/>
+      <c r="I135" s="1"/>
+    </row>
+    <row r="136" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="D136" s="1"/>
+      <c r="E136" s="1"/>
+      <c r="F136" s="1"/>
+      <c r="G136" s="1"/>
+      <c r="H136" s="1"/>
+      <c r="I136" s="1"/>
+    </row>
+    <row r="137" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="D137" s="1"/>
+      <c r="E137" s="1"/>
+      <c r="F137" s="1"/>
+      <c r="G137" s="1"/>
+      <c r="H137" s="1"/>
+      <c r="I137" s="1"/>
     </row>
     <row r="138" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B138" s="1"/>
@@ -6846,27 +6907,27 @@
         <v>0</v>
       </c>
       <c r="D150" s="5">
-        <f t="shared" ref="D150:D192" si="19">O150</f>
+        <f t="shared" ref="D150:D192" si="20">O150</f>
         <v>0</v>
       </c>
       <c r="E150" s="5">
-        <f t="shared" ref="E150:E192" si="20">P150</f>
+        <f t="shared" ref="E150:E192" si="21">P150</f>
         <v>1</v>
       </c>
       <c r="F150" s="5">
-        <f t="shared" ref="F150:F192" si="21">Q150</f>
+        <f t="shared" ref="F150:F192" si="22">Q150</f>
         <v>2</v>
       </c>
       <c r="G150" s="5">
-        <f t="shared" ref="G150:G192" si="22">R150</f>
+        <f t="shared" ref="G150:G192" si="23">R150</f>
         <v>3</v>
       </c>
       <c r="H150" s="5">
-        <f t="shared" ref="H150:H192" si="23">S150</f>
+        <f t="shared" ref="H150:H192" si="24">S150</f>
         <v>4</v>
       </c>
       <c r="I150" s="5">
-        <f t="shared" ref="I150:I192" si="24">T150</f>
+        <f t="shared" ref="I150:I192" si="25">T150</f>
         <v>5</v>
       </c>
       <c r="N150" s="26" t="s">
@@ -6897,27 +6958,27 @@
         <v>1</v>
       </c>
       <c r="D151" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E151" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>610000</v>
       </c>
       <c r="F151" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1225000</v>
       </c>
       <c r="G151" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1850000</v>
       </c>
       <c r="H151" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>2200000</v>
       </c>
       <c r="I151" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>2515000</v>
       </c>
       <c r="N151" s="26" t="s">
@@ -6948,27 +7009,27 @@
         <v>2</v>
       </c>
       <c r="D152" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E152" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>366000</v>
       </c>
       <c r="F152" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>735000</v>
       </c>
       <c r="G152" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1073000</v>
       </c>
       <c r="H152" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1276000</v>
       </c>
       <c r="I152" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1408400</v>
       </c>
       <c r="N152" s="26" t="s">
@@ -6999,27 +7060,27 @@
         <v>3</v>
       </c>
       <c r="D153" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E153" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>244000</v>
       </c>
       <c r="F153" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>490000</v>
       </c>
       <c r="G153" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>777000</v>
       </c>
       <c r="H153" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>924000</v>
       </c>
       <c r="I153" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1106600</v>
       </c>
       <c r="N153" s="26" t="s">
@@ -7050,27 +7111,27 @@
         <v>4</v>
       </c>
       <c r="D154" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E154" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>91500</v>
       </c>
       <c r="F154" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>183750</v>
       </c>
       <c r="G154" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>277500</v>
       </c>
       <c r="H154" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>330000</v>
       </c>
       <c r="I154" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>377250</v>
       </c>
       <c r="N154" s="26" t="s">
@@ -7101,27 +7162,27 @@
         <v>5</v>
       </c>
       <c r="D155" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E155" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>152500</v>
       </c>
       <c r="F155" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>306250</v>
       </c>
       <c r="G155" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>499500</v>
       </c>
       <c r="H155" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>594000</v>
       </c>
       <c r="I155" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>729350</v>
       </c>
       <c r="N155" s="26" t="s">
@@ -7152,27 +7213,27 @@
         <v>6</v>
       </c>
       <c r="D156" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E156" s="5">
-        <f t="shared" si="20"/>
-        <v>62500</v>
-      </c>
-      <c r="F156" s="5">
         <f t="shared" si="21"/>
         <v>62500</v>
       </c>
-      <c r="G156" s="5">
+      <c r="F156" s="5">
         <f t="shared" si="22"/>
         <v>62500</v>
       </c>
-      <c r="H156" s="5">
+      <c r="G156" s="5">
         <f t="shared" si="23"/>
         <v>62500</v>
       </c>
+      <c r="H156" s="5">
+        <f t="shared" si="24"/>
+        <v>62500</v>
+      </c>
       <c r="I156" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>62500</v>
       </c>
       <c r="N156" s="26" t="s">
@@ -7203,27 +7264,27 @@
         <v>7</v>
       </c>
       <c r="D157" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E157" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>90000</v>
       </c>
       <c r="F157" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>243750</v>
       </c>
       <c r="G157" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>437000</v>
       </c>
       <c r="H157" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>531500</v>
       </c>
       <c r="I157" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>666850</v>
       </c>
       <c r="N157" s="26" t="s">
@@ -7254,27 +7315,27 @@
         <v>8</v>
       </c>
       <c r="D158" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E158" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>10693.77</v>
       </c>
       <c r="F158" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>8158.2129999999997</v>
       </c>
       <c r="G158" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>527.25</v>
       </c>
       <c r="H158" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>627</v>
       </c>
       <c r="I158" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>716.77499999999998</v>
       </c>
       <c r="N158" s="26" t="s">
@@ -7305,27 +7366,27 @@
         <v>9</v>
       </c>
       <c r="D159" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E159" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="F159" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="G159" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>252.9117</v>
       </c>
       <c r="H159" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>12283.18</v>
       </c>
       <c r="I159" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>24452.670999999998</v>
       </c>
       <c r="N159" s="26" t="s">
@@ -7356,27 +7417,27 @@
         <v>10</v>
       </c>
       <c r="D160" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E160" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="F160" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="G160" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H160" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="I160" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>162500</v>
       </c>
       <c r="N160" s="26" t="s">
@@ -7407,27 +7468,27 @@
         <v>11</v>
       </c>
       <c r="D161" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E161" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>79306.23</v>
       </c>
       <c r="F161" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>235591.78700000001</v>
       </c>
       <c r="G161" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>436725.6617</v>
       </c>
       <c r="H161" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>543156.18000000005</v>
       </c>
       <c r="I161" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>853085.89599999995</v>
       </c>
       <c r="N161" s="26" t="s">
@@ -7458,27 +7519,27 @@
         <v>12</v>
       </c>
       <c r="D162" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E162" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>35000</v>
       </c>
       <c r="F162" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>55000</v>
       </c>
       <c r="G162" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>35000</v>
       </c>
       <c r="H162" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>-25000</v>
       </c>
       <c r="I162" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>-100000</v>
       </c>
       <c r="N162" s="26" t="s">
@@ -7509,27 +7570,27 @@
         <v>13</v>
       </c>
       <c r="D163" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E163" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-3277.5079999999998</v>
       </c>
       <c r="F163" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>39236.714999999997</v>
       </c>
       <c r="G163" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>139690.2647</v>
       </c>
       <c r="H163" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>242262.47</v>
       </c>
       <c r="I163" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>441234.35800000001</v>
       </c>
       <c r="N163" s="26" t="s">
@@ -7560,27 +7621,27 @@
         <v>14</v>
       </c>
       <c r="D164" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E164" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>31722.491999999998</v>
       </c>
       <c r="F164" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>94236.714999999997</v>
       </c>
       <c r="G164" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>174690.2647</v>
       </c>
       <c r="H164" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>217262.47</v>
       </c>
       <c r="I164" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>341234.35800000001</v>
       </c>
       <c r="N164" s="26" t="s">
@@ -7611,27 +7672,27 @@
         <v>15</v>
       </c>
       <c r="D165" s="12">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E165" s="12">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>47583.737999999998</v>
       </c>
       <c r="F165" s="12">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>141355.07199999999</v>
       </c>
       <c r="G165" s="12">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>262035.397</v>
       </c>
       <c r="H165" s="12">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>325893.71000000002</v>
       </c>
       <c r="I165" s="12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>511851.538</v>
       </c>
       <c r="N165" s="26" t="s">
@@ -7662,27 +7723,27 @@
         <v>16</v>
       </c>
       <c r="D166" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>30500</v>
       </c>
       <c r="E166" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>61250</v>
       </c>
       <c r="F166" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>92500</v>
       </c>
       <c r="G166" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>110000</v>
       </c>
       <c r="H166" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>125750</v>
       </c>
       <c r="I166" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="N166" s="26" t="s">
@@ -7713,27 +7774,27 @@
         <v>17</v>
       </c>
       <c r="D167" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E167" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="F167" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>7226.0479999999998</v>
       </c>
       <c r="G167" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>350948.06280000001</v>
       </c>
       <c r="H167" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>698647.64</v>
       </c>
       <c r="I167" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="N167" s="26" t="s">
@@ -7764,27 +7825,27 @@
         <v>18</v>
       </c>
       <c r="D168" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E168" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>61250</v>
       </c>
       <c r="F168" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>92500</v>
       </c>
       <c r="G168" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>110000</v>
       </c>
       <c r="H168" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>125750</v>
       </c>
       <c r="I168" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="N168" s="26" t="s">
@@ -7815,27 +7876,27 @@
         <v>19</v>
       </c>
       <c r="D169" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>30500</v>
       </c>
       <c r="E169" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>61250</v>
       </c>
       <c r="F169" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>92500</v>
       </c>
       <c r="G169" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>110000</v>
       </c>
       <c r="H169" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>125750</v>
       </c>
       <c r="I169" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="N169" s="26" t="s">
@@ -7866,27 +7927,27 @@
         <v>20</v>
       </c>
       <c r="D170" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>915</v>
       </c>
       <c r="E170" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1837.5</v>
       </c>
       <c r="F170" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>2775</v>
       </c>
       <c r="G170" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>3300</v>
       </c>
       <c r="H170" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>3772.5</v>
       </c>
       <c r="I170" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="N170" s="26" t="s">
@@ -7917,27 +7978,27 @@
         <v>21</v>
       </c>
       <c r="D171" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>61915</v>
       </c>
       <c r="E171" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>185587.5</v>
       </c>
       <c r="F171" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>287501.04800000001</v>
       </c>
       <c r="G171" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>684248.06279999996</v>
       </c>
       <c r="H171" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1079670.1399999999</v>
       </c>
       <c r="I171" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="N171" s="26" t="s">
@@ -7968,27 +8029,27 @@
         <v>22</v>
       </c>
       <c r="D172" s="7">
-        <f t="shared" si="19"/>
-        <v>500000</v>
-      </c>
-      <c r="E172" s="7">
         <f t="shared" si="20"/>
         <v>500000</v>
       </c>
-      <c r="F172" s="7">
+      <c r="E172" s="7">
         <f t="shared" si="21"/>
         <v>500000</v>
       </c>
-      <c r="G172" s="7">
+      <c r="F172" s="7">
         <f t="shared" si="22"/>
         <v>500000</v>
       </c>
-      <c r="H172" s="7">
+      <c r="G172" s="7">
         <f t="shared" si="23"/>
         <v>500000</v>
       </c>
+      <c r="H172" s="7">
+        <f t="shared" si="24"/>
+        <v>500000</v>
+      </c>
       <c r="I172" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="N172" s="26" t="s">
@@ -8019,27 +8080,27 @@
         <v>23</v>
       </c>
       <c r="D173" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E173" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>62500</v>
       </c>
       <c r="F173" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>125000</v>
       </c>
       <c r="G173" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>187500</v>
       </c>
       <c r="H173" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>250000</v>
       </c>
       <c r="I173" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="N173" s="26" t="s">
@@ -8070,27 +8131,27 @@
         <v>24</v>
       </c>
       <c r="D174" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>500000</v>
       </c>
       <c r="E174" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>437500</v>
       </c>
       <c r="F174" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>375000</v>
       </c>
       <c r="G174" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>312500</v>
       </c>
       <c r="H174" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>250000</v>
       </c>
       <c r="I174" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="N174" s="26" t="s">
@@ -8121,27 +8182,27 @@
         <v>25</v>
       </c>
       <c r="D175" s="12">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>561915</v>
       </c>
       <c r="E175" s="12">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>623087.5</v>
       </c>
       <c r="F175" s="12">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>662501.04799999995</v>
       </c>
       <c r="G175" s="12">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>996748.06279999996</v>
       </c>
       <c r="H175" s="12">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1329670.1399999999</v>
       </c>
       <c r="I175" s="12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="N175" s="26" t="s">
@@ -8172,27 +8233,27 @@
         <v>26</v>
       </c>
       <c r="D176" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>30500</v>
       </c>
       <c r="E176" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>73500</v>
       </c>
       <c r="F176" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>111000</v>
       </c>
       <c r="G176" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>132000</v>
       </c>
       <c r="H176" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>150900</v>
       </c>
       <c r="I176" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="N176" s="26" t="s">
@@ -8223,27 +8284,27 @@
         <v>27</v>
       </c>
       <c r="D177" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E177" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>5512.5</v>
       </c>
       <c r="F177" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>8325</v>
       </c>
       <c r="G177" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>9900</v>
       </c>
       <c r="H177" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>11317.5</v>
       </c>
       <c r="I177" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="N177" s="26" t="s">
@@ -8274,27 +8335,27 @@
         <v>28</v>
       </c>
       <c r="D178" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E178" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-819.37699999999995</v>
       </c>
       <c r="F178" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>9809.1790000000001</v>
       </c>
       <c r="G178" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>34922.566200000001</v>
       </c>
       <c r="H178" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>60565.62</v>
       </c>
       <c r="I178" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="N178" s="26" t="s">
@@ -8325,27 +8386,27 @@
         <v>29</v>
       </c>
       <c r="D179" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E179" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>20550.233</v>
       </c>
       <c r="F179" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="G179" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H179" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="I179" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="N179" s="26" t="s">
@@ -8376,27 +8437,27 @@
         <v>30</v>
       </c>
       <c r="D180" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>31415</v>
       </c>
       <c r="E180" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>9187.5</v>
       </c>
       <c r="F180" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>13875</v>
       </c>
       <c r="G180" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>16500</v>
       </c>
       <c r="H180" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>18862.5</v>
       </c>
       <c r="I180" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="N180" s="26" t="s">
@@ -8427,27 +8488,27 @@
         <v>31</v>
       </c>
       <c r="D181" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>61915</v>
       </c>
       <c r="E181" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>107930.856</v>
       </c>
       <c r="F181" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>143009.179</v>
       </c>
       <c r="G181" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>193322.5662</v>
       </c>
       <c r="H181" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>241645.62</v>
       </c>
       <c r="I181" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="N181" s="26" t="s">
@@ -8478,27 +8539,27 @@
         <v>32</v>
       </c>
       <c r="D182" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>250000</v>
       </c>
       <c r="E182" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>184952.09299999999</v>
       </c>
       <c r="F182" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="G182" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H182" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="I182" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="N182" s="26" t="s">
@@ -8529,27 +8590,27 @@
         <v>33</v>
       </c>
       <c r="D183" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E183" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>35000</v>
       </c>
       <c r="F183" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>90000</v>
       </c>
       <c r="G183" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>125000</v>
       </c>
       <c r="H183" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>100000</v>
       </c>
       <c r="I183" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="N183" s="26" t="s">
@@ -8580,27 +8641,27 @@
         <v>34</v>
       </c>
       <c r="D184" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>311915</v>
       </c>
       <c r="E184" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>327882.94900000002</v>
       </c>
       <c r="F184" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>233009.179</v>
       </c>
       <c r="G184" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>318322.5662</v>
       </c>
       <c r="H184" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>341645.62</v>
       </c>
       <c r="I184" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="N184" s="26" t="s">
@@ -8631,27 +8692,27 @@
         <v>35</v>
       </c>
       <c r="D185" s="7">
-        <f t="shared" si="19"/>
-        <v>250000</v>
-      </c>
-      <c r="E185" s="7">
         <f t="shared" si="20"/>
         <v>250000</v>
       </c>
-      <c r="F185" s="7">
+      <c r="E185" s="7">
         <f t="shared" si="21"/>
         <v>250000</v>
       </c>
-      <c r="G185" s="7">
+      <c r="F185" s="7">
         <f t="shared" si="22"/>
         <v>250000</v>
       </c>
-      <c r="H185" s="7">
+      <c r="G185" s="7">
         <f t="shared" si="23"/>
         <v>250000</v>
       </c>
+      <c r="H185" s="7">
+        <f t="shared" si="24"/>
+        <v>250000</v>
+      </c>
       <c r="I185" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="N185" s="26" t="s">
@@ -8682,27 +8743,27 @@
         <v>36</v>
       </c>
       <c r="D186" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E186" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="F186" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>45204.550999999999</v>
       </c>
       <c r="G186" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>179491.8695</v>
       </c>
       <c r="H186" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>428425.5</v>
       </c>
       <c r="I186" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>738024.52</v>
       </c>
       <c r="N186" s="26" t="s">
@@ -8733,27 +8794,27 @@
         <v>15</v>
       </c>
       <c r="D187" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E187" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>47583.737999999998</v>
       </c>
       <c r="F187" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>141355.07199999999</v>
       </c>
       <c r="G187" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>262035.397</v>
       </c>
       <c r="H187" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>325893.71000000002</v>
       </c>
       <c r="I187" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>511851.538</v>
       </c>
       <c r="N187" s="26" t="s">
@@ -8784,27 +8845,27 @@
         <v>37</v>
       </c>
       <c r="D188" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E188" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>2379.1869999999999</v>
       </c>
       <c r="F188" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>7067.7539999999999</v>
       </c>
       <c r="G188" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>13101.769899999999</v>
       </c>
       <c r="H188" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>16294.69</v>
       </c>
       <c r="I188" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1249876.058</v>
       </c>
       <c r="N188" s="26" t="s">
@@ -8835,27 +8896,27 @@
         <v>38</v>
       </c>
       <c r="D189" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E189" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>45204.550999999999</v>
       </c>
       <c r="F189" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>179491.86900000001</v>
       </c>
       <c r="G189" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>428425.49660000001</v>
       </c>
       <c r="H189" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>738024.52</v>
       </c>
       <c r="I189" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="N189" s="26" t="s">
@@ -8886,27 +8947,27 @@
         <v>39</v>
       </c>
       <c r="D190" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>250000</v>
       </c>
       <c r="E190" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>295204.55099999998</v>
       </c>
       <c r="F190" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>429491.86900000001</v>
       </c>
       <c r="G190" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>678425.49659999995</v>
       </c>
       <c r="H190" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>988024.52</v>
       </c>
       <c r="I190" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="N190" s="26" t="s">
@@ -8937,27 +8998,27 @@
         <v>40</v>
       </c>
       <c r="D191" s="12">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>561915</v>
       </c>
       <c r="E191" s="12">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>623087.5</v>
       </c>
       <c r="F191" s="12">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>662501.04799999995</v>
       </c>
       <c r="G191" s="12">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>996748.06279999996</v>
       </c>
       <c r="H191" s="12">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1329670.1399999999</v>
       </c>
       <c r="I191" s="12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="N191" s="26" t="s">
@@ -8988,27 +9049,27 @@
         <v>41</v>
       </c>
       <c r="D192" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E192" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="F192" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="G192" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H192" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="I192" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="N192" s="26" t="s">
@@ -9043,23 +9104,23 @@
         <v>0</v>
       </c>
       <c r="E193" s="7">
-        <f t="shared" ref="E193:I208" si="25">P106</f>
+        <f t="shared" ref="E193:I205" si="26">P106</f>
         <v>47584</v>
       </c>
       <c r="F193" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>141355</v>
       </c>
       <c r="G193" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>262035</v>
       </c>
       <c r="H193" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>325894</v>
       </c>
       <c r="I193" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>511852</v>
       </c>
     </row>
@@ -9068,27 +9129,27 @@
         <v>6</v>
       </c>
       <c r="D194" s="7">
-        <f t="shared" ref="D194:D216" si="26">O107</f>
+        <f t="shared" ref="D194:D205" si="27">O107</f>
         <v>0</v>
       </c>
       <c r="E194" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>62500</v>
       </c>
       <c r="F194" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>62500</v>
       </c>
       <c r="G194" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>62500</v>
       </c>
       <c r="H194" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>62500</v>
       </c>
       <c r="I194" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>62500</v>
       </c>
     </row>
@@ -9097,27 +9158,27 @@
         <v>12</v>
       </c>
       <c r="D195" s="7">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="E195" s="7">
         <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="E195" s="7">
-        <f t="shared" si="25"/>
         <v>35000</v>
       </c>
       <c r="F195" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>55000</v>
       </c>
       <c r="G195" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>35000</v>
       </c>
       <c r="H195" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>-25000</v>
       </c>
       <c r="I195" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>-100000</v>
       </c>
     </row>
@@ -9127,27 +9188,27 @@
         <v>42</v>
       </c>
       <c r="D196" s="7">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="E196" s="7">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="E196" s="7">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
       <c r="F196" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="G196" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="H196" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="I196" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>-162500</v>
       </c>
       <c r="J196" s="14"/>
@@ -9158,27 +9219,27 @@
         <v>43</v>
       </c>
       <c r="D197" s="7">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="E197" s="7">
         <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="E197" s="7">
-        <f t="shared" si="25"/>
         <v>-61250</v>
       </c>
       <c r="F197" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>-31250</v>
       </c>
       <c r="G197" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>-17500</v>
       </c>
       <c r="H197" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>-15750</v>
       </c>
       <c r="I197" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>125750</v>
       </c>
       <c r="J197" s="14"/>
@@ -9189,27 +9250,27 @@
         <v>44</v>
       </c>
       <c r="D198" s="7">
+        <f t="shared" si="27"/>
+        <v>-30500</v>
+      </c>
+      <c r="E198" s="7">
         <f t="shared" si="26"/>
-        <v>-30500</v>
-      </c>
-      <c r="E198" s="7">
-        <f t="shared" si="25"/>
         <v>-30750</v>
       </c>
       <c r="F198" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>-31250</v>
       </c>
       <c r="G198" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>-17500</v>
       </c>
       <c r="H198" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>-15750</v>
       </c>
       <c r="I198" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>125750</v>
       </c>
       <c r="J198" s="14"/>
@@ -9220,27 +9281,27 @@
         <v>45</v>
       </c>
       <c r="D199" s="7">
+        <f t="shared" si="27"/>
+        <v>-915</v>
+      </c>
+      <c r="E199" s="7">
         <f t="shared" si="26"/>
-        <v>-915</v>
-      </c>
-      <c r="E199" s="7">
-        <f t="shared" si="25"/>
         <v>-922</v>
       </c>
       <c r="F199" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>-938</v>
       </c>
       <c r="G199" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>-525</v>
       </c>
       <c r="H199" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>-472</v>
       </c>
       <c r="I199" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>3772</v>
       </c>
       <c r="J199" s="14"/>
@@ -9251,27 +9312,27 @@
         <v>46</v>
       </c>
       <c r="D200" s="7">
+        <f t="shared" si="27"/>
+        <v>30500</v>
+      </c>
+      <c r="E200" s="7">
         <f t="shared" si="26"/>
-        <v>30500</v>
-      </c>
-      <c r="E200" s="7">
-        <f t="shared" si="25"/>
         <v>43000</v>
       </c>
       <c r="F200" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>37500</v>
       </c>
       <c r="G200" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>21000</v>
       </c>
       <c r="H200" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>18900</v>
       </c>
       <c r="I200" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>-150900</v>
       </c>
       <c r="J200" s="14"/>
@@ -9282,27 +9343,27 @@
         <v>47</v>
       </c>
       <c r="D201" s="7">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="E201" s="7">
         <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="E201" s="7">
-        <f t="shared" si="25"/>
         <v>5512</v>
       </c>
       <c r="F201" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>2812</v>
       </c>
       <c r="G201" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>1575</v>
       </c>
       <c r="H201" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>1418</v>
       </c>
       <c r="I201" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>-11318</v>
       </c>
       <c r="J201" s="14"/>
@@ -9313,307 +9374,306 @@
         <v>48</v>
       </c>
       <c r="D202" s="5">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="E202" s="5">
         <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="E202" s="5">
-        <f t="shared" si="25"/>
         <v>-819</v>
       </c>
       <c r="F202" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>10629</v>
       </c>
       <c r="G202" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>25113</v>
       </c>
       <c r="H202" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>25643</v>
       </c>
       <c r="I202" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>-60566</v>
       </c>
       <c r="J202" s="14"/>
     </row>
-    <row r="203" spans="2:10" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="2:10" ht="19" x14ac:dyDescent="0.25">
       <c r="B203" s="14"/>
-      <c r="C203" s="11" t="s">
+      <c r="C203" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="D203" s="12">
+      <c r="D203" s="36">
+        <f t="shared" si="27"/>
+        <v>-915</v>
+      </c>
+      <c r="E203" s="36">
         <f t="shared" si="26"/>
-        <v>-915</v>
-      </c>
-      <c r="E203" s="12">
-        <f t="shared" si="25"/>
         <v>99854</v>
       </c>
-      <c r="F203" s="12">
-        <f t="shared" si="25"/>
+      <c r="F203" s="36">
+        <f t="shared" si="26"/>
         <v>246359</v>
       </c>
-      <c r="G203" s="12">
-        <f t="shared" si="25"/>
+      <c r="G203" s="36">
+        <f t="shared" si="26"/>
         <v>371699</v>
       </c>
-      <c r="H203" s="12">
-        <f t="shared" si="25"/>
+      <c r="H203" s="36">
+        <f t="shared" si="26"/>
         <v>377382</v>
       </c>
-      <c r="I203" s="12">
-        <f t="shared" si="25"/>
+      <c r="I203" s="36">
+        <f t="shared" si="26"/>
         <v>344341</v>
       </c>
       <c r="J203" s="14"/>
     </row>
-    <row r="204" spans="2:10" ht="20" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:10" ht="19" x14ac:dyDescent="0.25">
       <c r="B204" s="14"/>
-      <c r="C204" s="6" t="s">
+      <c r="C204" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="D204" s="7">
+      <c r="D204" s="34">
+        <f t="shared" si="27"/>
+        <v>-500000</v>
+      </c>
+      <c r="E204" s="34">
         <f t="shared" si="26"/>
-        <v>-500000</v>
-      </c>
-      <c r="E204" s="7">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="F204" s="7">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="G204" s="7">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="H204" s="7">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="I204" s="7">
-        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="F204" s="34">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="G204" s="34">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="H204" s="34">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="I204" s="34">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="J204" s="14"/>
     </row>
     <row r="205" spans="2:10" ht="19" x14ac:dyDescent="0.25">
       <c r="B205" s="14"/>
-      <c r="C205" s="6" t="s">
+      <c r="C205" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="D205" s="5">
+      <c r="D205" s="34">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="E205" s="34">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="E205" s="5">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="F205" s="5">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="G205" s="5">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="H205" s="5">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="I205" s="5">
-        <f t="shared" si="25"/>
+      <c r="F205" s="34">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="G205" s="34">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="H205" s="34">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="I205" s="34">
+        <f t="shared" si="26"/>
         <v>350000</v>
       </c>
       <c r="J205" s="14"/>
     </row>
-    <row r="206" spans="2:10" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B206" s="14"/>
-      <c r="C206" s="11" t="s">
+    <row r="206" spans="2:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="C206" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D206" s="5">
+        <f t="shared" ref="D206:D216" si="28">O119</f>
+        <v>0</v>
+      </c>
+      <c r="E206" s="5">
+        <f t="shared" ref="E206:E216" si="29">P119</f>
+        <v>0</v>
+      </c>
+      <c r="F206" s="5">
+        <f t="shared" ref="F206:F216" si="30">Q119</f>
+        <v>-7226</v>
+      </c>
+      <c r="G206" s="5">
+        <f t="shared" ref="G206:G216" si="31">R119</f>
+        <v>-343722</v>
+      </c>
+      <c r="H206" s="5">
+        <f t="shared" ref="H206:H216" si="32">S119</f>
+        <v>-347700</v>
+      </c>
+      <c r="I206" s="5">
+        <f t="shared" ref="I206:I216" si="33">T119</f>
+        <v>698648</v>
+      </c>
+      <c r="J206" s="14"/>
+    </row>
+    <row r="207" spans="2:10" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B207" s="14"/>
+      <c r="C207" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="D206" s="12">
-        <f t="shared" si="26"/>
+      <c r="D207" s="32">
+        <f t="shared" si="28"/>
         <v>-500000</v>
       </c>
-      <c r="E206" s="12">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="F206" s="12">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="G206" s="12">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="H206" s="12">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="I206" s="12">
-        <f t="shared" si="25"/>
-        <v>350000</v>
-      </c>
-      <c r="J206" s="14"/>
-    </row>
-    <row r="207" spans="2:10" ht="20" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B207" s="14"/>
-      <c r="C207" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D207" s="7">
-        <f t="shared" si="26"/>
-        <v>250000</v>
-      </c>
-      <c r="E207" s="7">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="F207" s="7">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="G207" s="7">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="H207" s="7">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="I207" s="7">
-        <f t="shared" si="25"/>
-        <v>-250000</v>
+      <c r="E207" s="32">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="F207" s="32">
+        <f t="shared" si="30"/>
+        <v>-7226</v>
+      </c>
+      <c r="G207" s="32">
+        <f t="shared" si="31"/>
+        <v>-343722</v>
+      </c>
+      <c r="H207" s="32">
+        <f t="shared" si="32"/>
+        <v>-347700</v>
+      </c>
+      <c r="I207" s="32">
+        <f t="shared" si="33"/>
+        <v>1048648</v>
       </c>
       <c r="J207" s="14"/>
     </row>
-    <row r="208" spans="2:10" ht="19" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:10" ht="20" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B208" s="14"/>
       <c r="C208" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D208" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>250000</v>
       </c>
       <c r="E208" s="7">
-        <f t="shared" si="25"/>
-        <v>-44498</v>
+        <f t="shared" si="29"/>
+        <v>0</v>
       </c>
       <c r="F208" s="7">
-        <f t="shared" si="25"/>
-        <v>-205502</v>
+        <f t="shared" si="30"/>
+        <v>0</v>
       </c>
       <c r="G208" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="H208" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="I208" s="7">
-        <f t="shared" si="25"/>
-        <v>0</v>
+        <f t="shared" si="33"/>
+        <v>-250000</v>
       </c>
       <c r="J208" s="14"/>
     </row>
     <row r="209" spans="2:10" ht="19" x14ac:dyDescent="0.25">
       <c r="B209" s="14"/>
       <c r="C209" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D209" s="7">
-        <f t="shared" si="26"/>
-        <v>31415</v>
+        <f t="shared" si="28"/>
+        <v>250000</v>
       </c>
       <c r="E209" s="7">
-        <f t="shared" ref="E209:E216" si="27">P122</f>
-        <v>-22228</v>
+        <f t="shared" si="29"/>
+        <v>-44498</v>
       </c>
       <c r="F209" s="7">
-        <f t="shared" ref="F209:F216" si="28">Q122</f>
-        <v>4688</v>
+        <f t="shared" si="30"/>
+        <v>-205502</v>
       </c>
       <c r="G209" s="7">
-        <f t="shared" ref="G209:G216" si="29">R122</f>
-        <v>2625</v>
+        <f t="shared" si="31"/>
+        <v>0</v>
       </c>
       <c r="H209" s="7">
-        <f t="shared" ref="H209:H216" si="30">S122</f>
-        <v>2362</v>
+        <f t="shared" si="32"/>
+        <v>0</v>
       </c>
       <c r="I209" s="7">
-        <f t="shared" ref="I209:I216" si="31">T122</f>
-        <v>-18862</v>
+        <f t="shared" si="33"/>
+        <v>0</v>
       </c>
       <c r="J209" s="14"/>
     </row>
     <row r="210" spans="2:10" ht="19" x14ac:dyDescent="0.25">
       <c r="B210" s="14"/>
       <c r="C210" s="6" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="D210" s="7">
-        <f t="shared" si="26"/>
-        <v>0</v>
+        <f t="shared" si="28"/>
+        <v>31415</v>
       </c>
       <c r="E210" s="7">
-        <f t="shared" si="27"/>
-        <v>-2379</v>
+        <f t="shared" si="29"/>
+        <v>-22228</v>
       </c>
       <c r="F210" s="7">
-        <f t="shared" si="28"/>
-        <v>-7068</v>
+        <f t="shared" si="30"/>
+        <v>4688</v>
       </c>
       <c r="G210" s="7">
-        <f t="shared" si="29"/>
-        <v>-13102</v>
+        <f t="shared" si="31"/>
+        <v>2625</v>
       </c>
       <c r="H210" s="7">
-        <f t="shared" si="30"/>
-        <v>-16295</v>
+        <f t="shared" si="32"/>
+        <v>2362</v>
       </c>
       <c r="I210" s="7">
-        <f t="shared" si="31"/>
-        <v>-1249876</v>
+        <f t="shared" si="33"/>
+        <v>-18862</v>
       </c>
       <c r="J210" s="14"/>
     </row>
     <row r="211" spans="2:10" ht="19" x14ac:dyDescent="0.25">
       <c r="B211" s="14"/>
       <c r="C211" s="6" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="D211" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="E211" s="7">
-        <f t="shared" si="27"/>
-        <v>0</v>
+        <f t="shared" si="29"/>
+        <v>-2379</v>
       </c>
       <c r="F211" s="7">
-        <f t="shared" si="28"/>
-        <v>-7226</v>
+        <f t="shared" si="30"/>
+        <v>-7068</v>
       </c>
       <c r="G211" s="7">
-        <f t="shared" si="29"/>
-        <v>-343722</v>
+        <f t="shared" si="31"/>
+        <v>-13102</v>
       </c>
       <c r="H211" s="7">
-        <f t="shared" si="30"/>
-        <v>-347700</v>
+        <f t="shared" si="32"/>
+        <v>-16295</v>
       </c>
       <c r="I211" s="7">
-        <f t="shared" si="31"/>
-        <v>698648</v>
+        <f t="shared" si="33"/>
+        <v>-1249876</v>
       </c>
       <c r="J211" s="14"/>
     </row>
@@ -9623,28 +9683,28 @@
         <v>57</v>
       </c>
       <c r="D212" s="12">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>531415</v>
       </c>
       <c r="E212" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>-69104</v>
       </c>
       <c r="F212" s="12">
-        <f t="shared" si="28"/>
-        <v>-215109</v>
+        <f t="shared" si="30"/>
+        <v>-207883</v>
       </c>
       <c r="G212" s="12">
-        <f t="shared" si="29"/>
-        <v>-354199</v>
+        <f t="shared" si="31"/>
+        <v>-10477</v>
       </c>
       <c r="H212" s="12">
-        <f t="shared" si="30"/>
-        <v>-361632</v>
+        <f t="shared" si="32"/>
+        <v>-13932</v>
       </c>
       <c r="I212" s="12">
-        <f t="shared" si="31"/>
-        <v>-820091</v>
+        <f t="shared" si="33"/>
+        <v>-1518739</v>
       </c>
       <c r="J212" s="14"/>
     </row>
@@ -9654,27 +9714,27 @@
         <v>58</v>
       </c>
       <c r="D213" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>30500</v>
       </c>
       <c r="E213" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>30750</v>
       </c>
       <c r="F213" s="7">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>31250</v>
       </c>
       <c r="G213" s="7">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>17500</v>
       </c>
       <c r="H213" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>15750</v>
       </c>
       <c r="I213" s="7">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>-125750</v>
       </c>
       <c r="J213" s="14"/>
@@ -9685,27 +9745,27 @@
         <v>59</v>
       </c>
       <c r="D214" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="E214" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>30500</v>
       </c>
       <c r="F214" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>61250</v>
       </c>
       <c r="G214" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>92500</v>
       </c>
       <c r="H214" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>110000</v>
       </c>
       <c r="I214" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>125750</v>
       </c>
       <c r="J214" s="14"/>
@@ -9716,27 +9776,27 @@
         <v>60</v>
       </c>
       <c r="D215" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>30500</v>
       </c>
       <c r="E215" s="10">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>61250</v>
       </c>
       <c r="F215" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>92500</v>
       </c>
       <c r="G215" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>110000</v>
       </c>
       <c r="H215" s="10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>125750</v>
       </c>
       <c r="I215" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="J215" s="14"/>
@@ -9746,27 +9806,27 @@
         <v>61</v>
       </c>
       <c r="D216" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="E216" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="F216" s="7">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="G216" s="7">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="H216" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="I216" s="7">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
     </row>
@@ -9778,6 +9838,11 @@
     <mergeCell ref="AC21:AC22"/>
     <mergeCell ref="Y21:Y22"/>
   </mergeCells>
+  <conditionalFormatting sqref="AV106:AW106">
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="True">
+      <formula>NOT(ISERROR(SEARCH("True",AV106)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
